--- a/biology/Botanique/Bangia/Bangia.xlsx
+++ b/biology/Botanique/Bangia/Bangia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bangia est un genre d'algue rouge de la famille des Bangiaceae.
 Le cycle de vie de l'algue comporte une alternance de deux générations : le gamétophyte macroscopique correspond à l'algue visible sur les rochers, et le sporophyte microscopique et filamenteux avait été décrit sous un autre nom pour certaines espèces : Conchocelis (Conchocelis rosea).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 juin 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 juin 2012) :
 Bangia aeruginosa Sprengel (Sans vérification)
 Bangia amethystina Kützing (Sans vérification)
 Bangia anisogona Meneghini (Sans vérification)
@@ -586,7 +600,7 @@
 Bangia yamadae Tanaka
 Bangia yamadai Tanaka (Sans vérification)
 Bangia zanardinii Meneghini (Statut incertain)
-Selon Catalogue of Life                                   (3 juin 2012)[2] :
+Selon Catalogue of Life                                   (3 juin 2012) :
 Bangia atropurpurea
 Bangia atrovirens
 Bangia aureola
@@ -602,18 +616,18 @@
 Bangia vermicularis
 Bangia yamadae
 Bangia zanardinii
-Selon ITIS      (3 juin 2012)[3] :
+Selon ITIS      (3 juin 2012) :
 Bangia ciliaris
 Bangia enteromorphoides
 Bangia fusco-purpurea (Dillwyn) Lyngbye
 Bangia tenuis
-Selon NCBI  (3 juin 2012)[4] :
+Selon NCBI  (3 juin 2012) :
 Bangia atropurpurea
 Bangia fuscopurpurea
 Bangia gloiopeltidicola
 Bangia maxima
 Bangia vermicularis
-Selon World Register of Marine Species                               (3 juin 2012)[5] :
+Selon World Register of Marine Species                               (3 juin 2012) :
 Bangia enteromorphoides E.Y.Dawson, 1953
 Bangia fulvescens (C.Agardh) J.Agardh
 Bangia fuscopurpurea (Dillwyn) Lyngbye, 1819
